--- a/DataFiles/ExcelFiles/LoginData.xlsx
+++ b/DataFiles/ExcelFiles/LoginData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726092E5-FC32-44F8-8E7F-09F2AA780341}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E169F90F-3CA8-4778-8919-033928EDAE16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="1080" windowWidth="14970" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -37,13 +37,13 @@
     <t>EKPC-ESAP</t>
   </si>
   <si>
-    <t>Password123!</t>
-  </si>
-  <si>
     <t>kedar</t>
   </si>
   <si>
     <t>ESAEagle</t>
+  </si>
+  <si>
+    <t>password123!</t>
   </si>
   <si>
     <t>Password@123</t>
@@ -378,7 +378,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -415,22 +415,22 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="Password@123" xr:uid="{C095303A-1119-4FFB-B667-0C8B274EE382}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{2C41E497-1920-4245-AEFA-78ED98E2BC7F}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{C095303A-1119-4FFB-B667-0C8B274EE382}"/>
+    <hyperlink ref="B5" r:id="rId2" display="Password@123" xr:uid="{2C41E497-1920-4245-AEFA-78ED98E2BC7F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataFiles/ExcelFiles/LoginData.xlsx
+++ b/DataFiles/ExcelFiles/LoginData.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E169F90F-3CA8-4778-8919-033928EDAE16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{78E35672-BCEB-4F94-8BBE-6E38E72E28D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="1080" windowWidth="14970" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15435" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Username</t>
   </si>
@@ -43,10 +44,10 @@
     <t>ESAEagle</t>
   </si>
   <si>
-    <t>password123!</t>
-  </si>
-  <si>
-    <t>Password@123</t>
+    <t>Validatioj</t>
+  </si>
+  <si>
+    <t>Logout</t>
   </si>
 </sst>
 </file>
@@ -375,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,8 +416,8 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
+      <c r="B4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -424,13 +425,20 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{C095303A-1119-4FFB-B667-0C8B274EE382}"/>
-    <hyperlink ref="B5" r:id="rId2" display="Password@123" xr:uid="{2C41E497-1920-4245-AEFA-78ED98E2BC7F}"/>
+    <hyperlink ref="B5" r:id="rId1" display="Password@123" xr:uid="{2C41E497-1920-4245-AEFA-78ED98E2BC7F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
